--- a/iselUssSyncV2/OutputWSL/20220517_1330_D60L474W90Q8.0U0.18H54.8G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1330_D60L474W90Q8.0U0.18H54.8G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>55.124285714285733</v>
+        <v>56.182111801242257</v>
       </c>
       <c r="F2" s="0">
-        <v>55.227023809523743</v>
+        <v>56.282596932053387</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>55.63358565737051</v>
+        <v>56.645737051792821</v>
       </c>
       <c r="F3" s="0">
-        <v>57.197171314741013</v>
+        <v>57.93282868525894</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>54.337171314741013</v>
+        <v>53.705028457598154</v>
       </c>
       <c r="F4" s="0">
-        <v>58.2707171314741</v>
+        <v>56.752026655283622</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>53.571713147410378</v>
+        <v>52.892390438247034</v>
       </c>
       <c r="F5" s="0">
-        <v>58.493824701195223</v>
+        <v>57.163585657370518</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>51.922341269841269</v>
+        <v>51.121269841269843</v>
       </c>
       <c r="F6" s="0">
-        <v>58.828809523809518</v>
+        <v>56.411904761904758</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>49.049960159362548</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>48.852380794283185</v>
+      </c>
+      <c r="F7" s="0">
+        <v>57.613610320622278</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>43.664523809523793</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>43.464007936507919</v>
+      </c>
+      <c r="F8" s="0">
+        <v>65.128174603174656</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -258,9 +262,11 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>41.264183266932278</v>
-      </c>
-      <c r="F9" s="0"/>
+        <v>40.438191203440212</v>
+      </c>
+      <c r="F9" s="0">
+        <v>63.519402390438266</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -276,10 +282,10 @@
         <v>-106</v>
       </c>
       <c r="E10" s="0">
-        <v>37.165298804780882</v>
+        <v>36.086733067729085</v>
       </c>
       <c r="F10" s="0">
-        <v>20.006254980079682</v>
+        <v>17.309601593625501</v>
       </c>
     </row>
     <row r="11">
@@ -296,10 +302,10 @@
         <v>-106</v>
       </c>
       <c r="E11" s="0">
-        <v>33.749880952380948</v>
+        <v>32.681992506165813</v>
       </c>
       <c r="F11" s="0">
-        <v>22.344007936507932</v>
+        <v>19.654605546069686</v>
       </c>
     </row>
     <row r="12">
@@ -316,10 +322,10 @@
         <v>-106</v>
       </c>
       <c r="E12" s="0">
-        <v>32.279642857142854</v>
+        <v>32.103148833238471</v>
       </c>
       <c r="F12" s="0">
-        <v>23.287500000000001</v>
+        <v>20.633874501992032</v>
       </c>
     </row>
     <row r="13">
@@ -336,10 +342,10 @@
         <v>-106</v>
       </c>
       <c r="E13" s="0">
-        <v>29.972031872509959</v>
+        <v>28.896317586795671</v>
       </c>
       <c r="F13" s="0">
-        <v>24.037370517928288</v>
+        <v>21.343481629039402</v>
       </c>
     </row>
     <row r="14">
@@ -356,10 +362,10 @@
         <v>-106</v>
       </c>
       <c r="E14" s="0">
-        <v>28.478207171314729</v>
+        <v>27.432270916334648</v>
       </c>
       <c r="F14" s="0">
-        <v>24.66749003984064</v>
+        <v>22.000079681274901</v>
       </c>
     </row>
     <row r="15">
@@ -376,10 +382,10 @@
         <v>-106</v>
       </c>
       <c r="E15" s="0">
-        <v>28.194563492063491</v>
+        <v>27.143373015873014</v>
       </c>
       <c r="F15" s="0">
-        <v>25.144325396825398</v>
+        <v>22.482976190476194</v>
       </c>
     </row>
     <row r="16">
@@ -396,10 +402,10 @@
         <v>-106</v>
       </c>
       <c r="E16" s="0">
-        <v>30.414223107569725</v>
+        <v>29.381405647252265</v>
       </c>
       <c r="F16" s="0">
-        <v>25.275577689243029</v>
+        <v>23.261411022576361</v>
       </c>
     </row>
     <row r="17">
@@ -416,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>30.28277777777777</v>
+        <v>29.93789682539682</v>
       </c>
       <c r="F17" s="0">
-        <v>25.218333333333334</v>
+        <v>22.65329365079365</v>
       </c>
     </row>
     <row r="18">
@@ -436,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>30.291713147410366</v>
+        <v>29.233975052172273</v>
       </c>
       <c r="F18" s="0">
-        <v>25.420756972111555</v>
+        <v>22.739606178460761</v>
       </c>
     </row>
     <row r="19">
@@ -456,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>30.602539682539682</v>
+        <v>29.562380952380952</v>
       </c>
       <c r="F19" s="0">
-        <v>25.690317460317456</v>
+        <v>23.033055555555549</v>
       </c>
     </row>
     <row r="20">
@@ -476,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>30.01521912350599</v>
+        <v>28.928155631442497</v>
       </c>
       <c r="F20" s="0">
-        <v>25.795498007968128</v>
+        <v>23.090220230190351</v>
       </c>
     </row>
     <row r="21">
@@ -496,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>28.3981673306773</v>
+        <v>27.350996015936264</v>
       </c>
       <c r="F21" s="0">
-        <v>25.961274900398415</v>
+        <v>23.319681274900411</v>
       </c>
     </row>
     <row r="22">
@@ -516,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>26.116190476190461</v>
+        <v>24.63880952380951</v>
       </c>
       <c r="F22" s="0">
-        <v>25.786984126984123</v>
+        <v>23.505555555555553</v>
       </c>
     </row>
     <row r="23">
@@ -536,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>24.248333333333328</v>
+        <v>22.731281540504643</v>
       </c>
       <c r="F23" s="0">
-        <v>26.130357142857147</v>
+        <v>23.430875071143998</v>
       </c>
     </row>
     <row r="24">
@@ -556,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>21.8272908366534</v>
+        <v>20.341952191235073</v>
       </c>
       <c r="F24" s="0">
-        <v>26.171553784860556</v>
+        <v>23.050756972111554</v>
       </c>
     </row>
     <row r="25">
@@ -576,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>23.186825396825402</v>
+        <v>22.35210317460318</v>
       </c>
       <c r="F25" s="0">
-        <v>26.104801587301601</v>
+        <v>23.786984126984141</v>
       </c>
     </row>
     <row r="26">
@@ -596,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>22.938446215139454</v>
+        <v>22.310239043824712</v>
       </c>
       <c r="F26" s="0">
-        <v>25.951314741035862</v>
+        <v>24.265697211155384</v>
       </c>
     </row>
     <row r="27">
@@ -616,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>21.221984126984118</v>
+        <v>20.543378549294875</v>
       </c>
       <c r="F27" s="0">
-        <v>25.886984126984117</v>
+        <v>24.395270979573759</v>
       </c>
     </row>
     <row r="28">
@@ -636,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>21.521752988047805</v>
+        <v>21.366514892809711</v>
       </c>
       <c r="F28" s="0">
-        <v>25.297410358565738</v>
+        <v>23.891616707772087</v>
       </c>
     </row>
     <row r="29">
@@ -656,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>19.754940239043822</v>
+        <v>19.095376746980332</v>
       </c>
       <c r="F29" s="0">
-        <v>25.223585657370521</v>
+        <v>23.75981581610068</v>
       </c>
     </row>
     <row r="30">
@@ -676,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>20.58448412698413</v>
+        <v>20.397579365079366</v>
       </c>
       <c r="F30" s="0">
-        <v>24.416984126984126</v>
+        <v>23.823928571428571</v>
       </c>
     </row>
   </sheetData>
